--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-457473.6090036589</v>
+        <v>-459361.1905200609</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>246.6480745886786</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>82.237176443951</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.84003136202615</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>6.837139712981789</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>369.1693311547418</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>41.70146860294857</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>49.43466667695306</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>50.09791697323064</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>109.4422623037129</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>43.95772706123027</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>6.357987380643181</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>126.0887386816666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273987</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>32.25681747480765</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>134.4442626460247</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>8.525532102718842</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>165.1182835606713</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>170.5809693952292</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>3.057218322999915</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>24.29718497126777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2412,10 +2412,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>139.1537278750046</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151919</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896922</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002173</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151923</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>39.79535355857024</v>
+        <v>55.80377616365256</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>90.21779139437402</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>93.7105717389789</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571497</v>
+        <v>55.21598883571475</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523578</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.717553355046</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.344304429832</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604799</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522958</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463135</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1404.597857825387</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C2" t="n">
-        <v>1035.635340884975</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D2" t="n">
-        <v>1035.635340884975</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E2" t="n">
-        <v>1035.635340884975</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4370,10 +4370,10 @@
         <v>2168.202948062278</v>
       </c>
       <c r="X2" t="n">
-        <v>1794.737189801198</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="Y2" t="n">
-        <v>1404.597857825387</v>
+        <v>2168.202948062278</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4519,19 +4519,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.3468541648867</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1251.855211652197</v>
+        <v>1624.753525949916</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1255.791009009504</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1255.791009009504</v>
       </c>
       <c r="E5" t="n">
         <v>882.8926947117852</v>
@@ -4556,19 +4556,19 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4580,13 +4580,13 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2381.363038962244</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2028.59438369213</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>2028.59438369213</v>
+        <v>2014.892857925728</v>
       </c>
       <c r="Y5" t="n">
-        <v>1638.455051716319</v>
+        <v>1624.753525949916</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.9284171545819</v>
+        <v>409.5384547146244</v>
       </c>
       <c r="C7" t="n">
-        <v>235.9284171545819</v>
+        <v>409.5384547146244</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545819</v>
+        <v>409.5384547146244</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>261.6253611322313</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931987</v>
+        <v>409.5384547146244</v>
       </c>
       <c r="V7" t="n">
-        <v>286.5323736931987</v>
+        <v>409.5384547146244</v>
       </c>
       <c r="W7" t="n">
-        <v>235.9284171545819</v>
+        <v>409.5384547146244</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9284171545819</v>
+        <v>409.5384547146244</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.9284171545819</v>
+        <v>409.5384547146244</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>554.3221432721089</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>185.3596263316971</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>185.3596263316971</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>185.3596263316971</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>178.4141255824937</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>164.4907215210846</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2652.747346511929</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362306</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="9">
@@ -4884,10 +4884,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>196.6941021971134</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W10" t="n">
-        <v>409.2948950230955</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X10" t="n">
-        <v>181.3053441250782</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="11">
@@ -5024,49 +5024,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2338.69837048303</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>613.8011874802296</v>
+        <v>552.3735683412845</v>
       </c>
       <c r="C13" t="n">
-        <v>444.8650045523227</v>
+        <v>383.4373854133776</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>383.4373854133776</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352017</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>1244.231782352017</v>
+        <v>954.8146123150543</v>
       </c>
       <c r="X13" t="n">
-        <v>1016.242231453999</v>
+        <v>954.8146123150543</v>
       </c>
       <c r="Y13" t="n">
-        <v>795.4496523104693</v>
+        <v>734.0220331715242</v>
       </c>
     </row>
     <row r="14">
@@ -5255,34 +5255,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5443,43 +5443,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>1332.130125547123</v>
+        <v>844.0280401273988</v>
       </c>
       <c r="W16" t="n">
-        <v>1042.712955510163</v>
+        <v>554.6108700904382</v>
       </c>
       <c r="X16" t="n">
-        <v>814.7234046121455</v>
+        <v>326.6213191924209</v>
       </c>
       <c r="Y16" t="n">
-        <v>593.9308254686154</v>
+        <v>105.8287400488907</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5592,16 +5592,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
         <v>2051.878056918008</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1326.612261067772</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1037.48362228133</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>782.7991340754431</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>493.3819640384826</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,13 +5786,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>523.816952016428</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>523.816952016428</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>523.816952016428</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>523.816952016428</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765184</v>
+        <v>1295.908161157293</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706316</v>
+        <v>1041.223672951406</v>
       </c>
       <c r="W22" t="n">
-        <v>531.3977182706316</v>
+        <v>751.8065029144453</v>
       </c>
       <c r="X22" t="n">
-        <v>303.4081673726142</v>
+        <v>523.816952016428</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>523.816952016428</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571612</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636255</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526318</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>237.7764125461491</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>237.7764125461491</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>237.7764125461491</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>237.7764125461491</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>237.7764125461491</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>237.7764125461491</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6145,10 +6145,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799366</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473456</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473456</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687014</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>755.183133481127</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>465.7659634441665</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>237.7764125461491</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>237.7764125461491</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,19 +6400,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
         <v>869.3083006011507</v>
@@ -6424,10 +6424,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163767</v>
+        <v>620.734267659893</v>
       </c>
       <c r="C31" t="n">
-        <v>491.3888261698405</v>
+        <v>507.5589500133571</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430019</v>
+        <v>451.191499343001</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430019</v>
+        <v>451.191499343001</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264623</v>
+        <v>360.0624171264616</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>247.6479607276531</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569673</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962058</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1791.966918252999</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1623.942368323876</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1390.574594818804</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1191.650971894288</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818924</v>
+        <v>957.9946671386987</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652456</v>
+        <v>785.7659815220522</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652456</v>
+        <v>620.734267659893</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,40 +6710,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,34 +6765,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6929,19 +6929,19 @@
         <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6953,10 +6953,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -7014,22 +7014,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,34 +7239,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7309,16 +7309,16 @@
         <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,7 +7327,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,37 +7345,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7418,40 +7418,40 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,34 +7476,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8772,25 +8772,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,10 +9249,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776738</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>116.3586555434047</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>11.98970000054449</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>171.3064480792185</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,10 +23662,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,10 +23707,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>87.01935976315667</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>50.96659166316005</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>283.1801340755774</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>194.287468380827</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>9.76010049253153</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338537</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>53.61686283108509</v>
+        <v>37.60844022600256</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>91.23070601801194</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523555</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1160664.664191674</v>
+        <v>1160664.664191673</v>
       </c>
     </row>
     <row r="6">
@@ -26314,7 +26314,7 @@
         <v>225786.486712678</v>
       </c>
       <c r="C2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="D2" t="n">
         <v>225786.486712678</v>
@@ -26323,13 +26323,13 @@
         <v>215065.9828557398</v>
       </c>
       <c r="F2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="G2" t="n">
         <v>215065.9828557398</v>
       </c>
       <c r="H2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="I2" t="n">
         <v>215065.9828557399</v>
@@ -26338,22 +26338,22 @@
         <v>215065.9828557399</v>
       </c>
       <c r="K2" t="n">
-        <v>223752.1755398986</v>
+        <v>223752.1755398985</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.4867126782</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="M2" t="n">
         <v>225786.4867126782</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.4867126782</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.4867126782</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.4867126782</v>
+        <v>225786.4867126781</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925925</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284578</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086689</v>
+        <v>10342.90680086672</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284557</v>
       </c>
     </row>
     <row r="4">
@@ -26421,40 +26421,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007507</v>
+        <v>7916.731656007525</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007525</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007496</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007492</v>
+        <v>7916.731656007505</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.73165600741</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007538</v>
+        <v>7916.731656007451</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020401</v>
+        <v>26081.35417020407</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732793</v>
+        <v>30335.51889732792</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26470,46 +26470,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26528,40 @@
         <v>-4989.640066652326</v>
       </c>
       <c r="E6" t="n">
-        <v>-409998.1112258806</v>
+        <v>-410095.5703518527</v>
       </c>
       <c r="F6" t="n">
-        <v>115161.9252510157</v>
+        <v>115064.4661250436</v>
       </c>
       <c r="G6" t="n">
-        <v>115161.9252510156</v>
+        <v>115064.4661250435</v>
       </c>
       <c r="H6" t="n">
-        <v>115161.9252510157</v>
+        <v>115064.4661250436</v>
       </c>
       <c r="I6" t="n">
-        <v>115161.9252510154</v>
+        <v>115064.4661250434</v>
       </c>
       <c r="J6" t="n">
-        <v>-61261.29394157678</v>
+        <v>-61358.75306754942</v>
       </c>
       <c r="K6" t="n">
-        <v>56880.00753662619</v>
+        <v>56861.51379869155</v>
       </c>
       <c r="L6" t="n">
-        <v>87392.95519445793</v>
+        <v>87392.95519445806</v>
       </c>
       <c r="M6" t="n">
-        <v>-37065.15323851244</v>
+        <v>-37065.15323851238</v>
       </c>
       <c r="N6" t="n">
-        <v>97735.86199532478</v>
+        <v>97735.86199532477</v>
       </c>
       <c r="O6" t="n">
-        <v>97735.8619953249</v>
+        <v>97735.86199532477</v>
       </c>
       <c r="P6" t="n">
-        <v>53573.25669247913</v>
+        <v>53573.2566924792</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964061</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,43 +26738,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108362</v>
+        <v>12.9286335010834</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855725</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990175</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545559</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990177</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>136.085767074802</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>324.6388692977604</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123.9919488199112</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>279.6858586236092</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>12.76103891751995</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>286.0507898671863</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>95.98638134597817</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>236.4250813633604</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>214.4805104606442</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>10.52067551358144</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>149.812901461152</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>92.49591467042819</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.637090463191271e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855722</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31282,43 +31282,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,46 +32698,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565522</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
         <v>0.2670576580354894</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,43 +32862,43 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
         <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171321</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>287.7526615081896</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206045</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>682.9598737318697</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
         <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>415.040675600518</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980132</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091987</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412277</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084858</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341609</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403581</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.428956600432</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
